--- a/inbox-excel-vocabs/vocab_dataLevel.xlsx
+++ b/inbox-excel-vocabs/vocab_dataLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrooggioni/Sites/GitHub/elter-vocabularies/inbox-excel-vocabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885E9334-91CA-3046-9F33-913B0C4C21A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AB11E9-26EB-8846-AAB2-18D38968CC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32580" windowHeight="26900" tabRatio="652" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32580" windowHeight="26900" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -1668,9 +1668,6 @@
     <t>derived data</t>
   </si>
   <si>
-    <t>0000-0002-7997-219X Created concept</t>
-  </si>
-  <si>
     <t>are defined as Raw data, which are values directly obtained by human measurements or automated sensors that have not undergone any transformation. This could include quantitative or qualitative information about physical variables of the environment and may be of various forms, such as images, text files or physical samples. These data are transformed into physical units either directly provided by instruments or converted from engineering units (for example, mV, mA, Ω) to physical units</t>
   </si>
   <si>
@@ -1714,6 +1711,9 @@
   </si>
   <si>
     <t>https://orcid.org/0000-0002-7997-219X Created collection</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7997-219X Created concept</t>
   </si>
 </sst>
 </file>
@@ -6886,8 +6886,8 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6942,23 +6942,23 @@
         <v>124</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I3" s="23"/>
     </row>
@@ -6973,17 +6973,17 @@
         <v>48</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I4" s="24"/>
     </row>
@@ -6998,17 +6998,17 @@
         <v>48</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I5" s="23"/>
     </row>
@@ -7023,17 +7023,17 @@
         <v>48</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I6" s="23"/>
     </row>
@@ -7745,8 +7745,8 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7782,19 +7782,19 @@
     </row>
     <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>144</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/inbox-excel-vocabs/vocab_dataLevel.xlsx
+++ b/inbox-excel-vocabs/vocab_dataLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrooggioni/Sites/GitHub/elter-vocabularies/inbox-excel-vocabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885E9334-91CA-3046-9F33-913B0C4C21A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D149AC1C-83BD-4242-8D8C-C60F6A83AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32580" windowHeight="26900" tabRatio="652" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-43980" yWindow="-5840" windowWidth="28800" windowHeight="16640" tabRatio="652" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -1620,9 +1620,6 @@
     <t>http://omv.ontoware.org/2005/05/ontology</t>
   </si>
   <si>
-    <t>et:</t>
-  </si>
-  <si>
     <t>eLTER-RI</t>
   </si>
   <si>
@@ -1641,9 +1638,6 @@
     <t>Alessandro Oggioni (orcid:0000-0002-7997-219X)</t>
   </si>
   <si>
-    <t>eLTER_dl</t>
-  </si>
-  <si>
     <t>https://vocabs.lter-europe.net/dataLevel/</t>
   </si>
   <si>
@@ -1666,9 +1660,6 @@
   </si>
   <si>
     <t>derived data</t>
-  </si>
-  <si>
-    <t>0000-0002-7997-219X Created concept</t>
   </si>
   <si>
     <t>are defined as Raw data, which are values directly obtained by human measurements or automated sensors that have not undergone any transformation. This could include quantitative or qualitative information about physical variables of the environment and may be of various forms, such as images, text files or physical samples. These data are transformed into physical units either directly provided by instruments or converted from engineering units (for example, mV, mA, Ω) to physical units</t>
@@ -1714,6 +1705,15 @@
   </si>
   <si>
     <t>https://orcid.org/0000-0002-7997-219X Created collection</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7997-219X Created concept</t>
+  </si>
+  <si>
+    <t>elter_dl:</t>
+  </si>
+  <si>
+    <t>elter_dl</t>
   </si>
 </sst>
 </file>
@@ -5713,7 +5713,7 @@
   <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -5748,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>43</v>
@@ -5762,7 +5762,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>44</v>
@@ -5804,7 +5804,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
@@ -5818,7 +5818,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
@@ -5832,7 +5832,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>73</v>
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -5860,7 +5860,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -6887,7 +6887,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6939,101 +6939,101 @@
     </row>
     <row r="3" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="I6" s="23"/>
     </row>
@@ -7209,7 +7209,7 @@
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7745,8 +7745,8 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7782,19 +7782,19 @@
     </row>
     <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>142</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7932,7 +7932,9 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="338" zoomScaleNormal="338" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="338" zoomScaleNormal="338" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7949,10 +7951,10 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
